--- a/cashflow_p&l_files/5. Heron View Profit & Loss.xlsx
+++ b/cashflow_p&l_files/5. Heron View Profit & Loss.xlsx
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="96" t="n">
-        <v>0</v>
+        <v>-20443.12</v>
       </c>
       <c r="I26" s="96" t="n">
         <v>0</v>

--- a/cashflow_p&l_files/5. Heron View Profit & Loss.xlsx
+++ b/cashflow_p&l_files/5. Heron View Profit & Loss.xlsx
@@ -6216,22 +6216,22 @@
         </is>
       </c>
       <c r="B8" s="92" t="n">
-        <v>4252624.12</v>
+        <v>0</v>
       </c>
       <c r="C8" s="92" t="n">
-        <v>4336497.82</v>
+        <v>0</v>
       </c>
       <c r="D8" s="92" t="n">
-        <v>4774233.25</v>
+        <v>0</v>
       </c>
       <c r="E8" s="92" t="n">
-        <v>3889214.05</v>
+        <v>0</v>
       </c>
       <c r="F8" s="92" t="n">
-        <v>4178067.3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="92" t="n">
-        <v>4418306.73</v>
+        <v>4967306.73</v>
       </c>
       <c r="H8" s="92" t="n">
         <v>2750089.29</v>
@@ -6334,7 +6334,7 @@
         </is>
       </c>
       <c r="B12" s="92" t="n">
-        <v>17292.48</v>
+        <v>0</v>
       </c>
       <c r="C12" s="92" t="n">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="B13" s="96" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C13" s="96" t="n">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="96" t="n">
-        <v>86.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13" s="96" t="n">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="96" t="n">
-        <v>86.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="F14" s="96" t="n">
         <v>0</v>
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="B15" s="96" t="n">
-        <v>760.87</v>
+        <v>0</v>
       </c>
       <c r="C15" s="96" t="n">
         <v>0</v>
@@ -6506,19 +6506,19 @@
         </is>
       </c>
       <c r="B16" s="96" t="n">
-        <v>191661.47</v>
+        <v>0</v>
       </c>
       <c r="C16" s="96" t="n">
-        <v>1344.32</v>
+        <v>0</v>
       </c>
       <c r="D16" s="96" t="n">
-        <v>28166.51</v>
+        <v>0</v>
       </c>
       <c r="E16" s="96" t="n">
-        <v>16372.1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="96" t="n">
-        <v>12386.25</v>
+        <v>0</v>
       </c>
       <c r="G16" s="96" t="n">
         <v>5415.27</v>
@@ -6549,19 +6549,19 @@
         </is>
       </c>
       <c r="B17" s="96" t="n">
-        <v>24545.15</v>
+        <v>0</v>
       </c>
       <c r="C17" s="96" t="n">
-        <v>1250.39</v>
+        <v>0</v>
       </c>
       <c r="D17" s="96" t="n">
-        <v>2880.57</v>
+        <v>0</v>
       </c>
       <c r="E17" s="96" t="n">
-        <v>2570.42</v>
+        <v>0</v>
       </c>
       <c r="F17" s="96" t="n">
-        <v>115757.06</v>
+        <v>0</v>
       </c>
       <c r="G17" s="96" t="n">
         <v>1175.65</v>
@@ -6592,19 +6592,19 @@
         </is>
       </c>
       <c r="B18" s="98" t="n">
-        <v>1189.57</v>
+        <v>0</v>
       </c>
       <c r="C18" s="98" t="n">
-        <v>1189.57</v>
+        <v>0</v>
       </c>
       <c r="D18" s="98" t="n">
-        <v>1189.57</v>
+        <v>0</v>
       </c>
       <c r="E18" s="98" t="n">
-        <v>1440.87</v>
+        <v>0</v>
       </c>
       <c r="F18" s="98" t="n">
-        <v>1483.14</v>
+        <v>0</v>
       </c>
       <c r="G18" s="98" t="n">
         <v>1797.39</v>
@@ -6635,19 +6635,19 @@
         </is>
       </c>
       <c r="B19" s="98" t="n">
-        <v>776649.41</v>
+        <v>0</v>
       </c>
       <c r="C19" s="98" t="n">
-        <v>84649.57000000001</v>
+        <v>0</v>
       </c>
       <c r="D19" s="98" t="n">
-        <v>149683.77</v>
+        <v>0</v>
       </c>
       <c r="E19" s="98" t="n">
-        <v>328611.84</v>
+        <v>0</v>
       </c>
       <c r="F19" s="98" t="n">
-        <v>75191</v>
+        <v>0</v>
       </c>
       <c r="G19" s="98" t="n">
         <v>63191.31</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="98" t="n">
-        <v>694.78</v>
+        <v>0</v>
       </c>
       <c r="D20" s="98" t="n">
         <v>0</v>
@@ -6721,19 +6721,19 @@
         </is>
       </c>
       <c r="B21" s="98" t="n">
-        <v>59157.63</v>
+        <v>0</v>
       </c>
       <c r="C21" s="98" t="n">
-        <v>53004.4</v>
+        <v>0</v>
       </c>
       <c r="D21" s="98" t="n">
-        <v>50267.62</v>
+        <v>0</v>
       </c>
       <c r="E21" s="98" t="n">
-        <v>40224.74</v>
+        <v>0</v>
       </c>
       <c r="F21" s="98" t="n">
-        <v>79865.24000000001</v>
+        <v>0</v>
       </c>
       <c r="G21" s="98" t="n">
         <v>-2784.8</v>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="98" t="n">
-        <v>1129.57</v>
+        <v>0</v>
       </c>
       <c r="E22" s="98" t="n">
         <v>0</v>
@@ -6807,19 +6807,19 @@
         </is>
       </c>
       <c r="B23" s="110" t="n">
-        <v>2483055.52</v>
+        <v>8338713.56</v>
       </c>
       <c r="C23" s="110" t="n">
-        <v>3193925.31</v>
+        <v>9056635.59</v>
       </c>
       <c r="D23" s="110" t="n">
-        <v>3793437.38</v>
+        <v>5306635.59</v>
       </c>
       <c r="E23" s="110" t="n">
-        <v>2688761.77</v>
+        <v>5306635.59</v>
       </c>
       <c r="F23" s="110" t="n">
-        <v>3233584.29</v>
+        <v>3306635.59</v>
       </c>
       <c r="G23" s="110" t="n">
         <v>4150526.94</v>
@@ -6850,16 +6850,16 @@
         </is>
       </c>
       <c r="B24" s="110" t="n">
-        <v>263223.18</v>
+        <v>24793.88</v>
       </c>
       <c r="C24" s="110" t="n">
-        <v>111322.42</v>
+        <v>24793.88</v>
       </c>
       <c r="D24" s="110" t="n">
-        <v>61021.92</v>
+        <v>24793.88</v>
       </c>
       <c r="E24" s="110" t="n">
-        <v>28694.56</v>
+        <v>24793.88</v>
       </c>
       <c r="F24" s="110" t="n">
         <v>24793.88</v>
@@ -6893,16 +6893,16 @@
         </is>
       </c>
       <c r="B25" s="110" t="n">
-        <v>0</v>
+        <v>107.39</v>
       </c>
       <c r="C25" s="110" t="n">
-        <v>78.26000000000001</v>
+        <v>107.39</v>
       </c>
       <c r="D25" s="110" t="n">
-        <v>2170.45</v>
+        <v>107.39</v>
       </c>
       <c r="E25" s="110" t="n">
-        <v>8882.139999999999</v>
+        <v>107.39</v>
       </c>
       <c r="F25" s="110" t="n">
         <v>107.39</v>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B26" s="96" t="n">
-        <v>2719.43</v>
+        <v>0</v>
       </c>
       <c r="C26" s="96" t="n">
         <v>0</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="96" t="n">
-        <v>468.7</v>
+        <v>0</v>
       </c>
       <c r="G27" s="96" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="96" t="n">
-        <v>25461.52</v>
+        <v>0</v>
       </c>
       <c r="G28" s="96" t="n">
         <v>0</v>
@@ -7074,10 +7074,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="96" t="n">
-        <v>30013.04</v>
+        <v>0</v>
       </c>
       <c r="F29" s="96" t="n">
-        <v>11607.87</v>
+        <v>0</v>
       </c>
       <c r="G29" s="96" t="n">
         <v>16000</v>
@@ -7111,16 +7111,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="96" t="n">
-        <v>486.95</v>
+        <v>0</v>
       </c>
       <c r="D30" s="96" t="n">
-        <v>20456.5</v>
+        <v>0</v>
       </c>
       <c r="E30" s="96" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F30" s="96" t="n">
-        <v>-19.48</v>
+        <v>0</v>
       </c>
       <c r="G30" s="96" t="n">
         <v>7197</v>
@@ -7282,19 +7282,19 @@
         </is>
       </c>
       <c r="B36" s="92" t="n">
-        <v>144.7</v>
+        <v>0</v>
       </c>
       <c r="C36" s="92" t="n">
-        <v>175.49</v>
+        <v>0</v>
       </c>
       <c r="D36" s="92" t="n">
-        <v>17.19</v>
+        <v>0</v>
       </c>
       <c r="E36" s="92" t="n">
-        <v>67.93000000000001</v>
+        <v>0</v>
       </c>
       <c r="F36" s="92" t="n">
-        <v>99.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="G36" s="92" t="n">
         <v>88.36</v>
@@ -7325,19 +7325,19 @@
         </is>
       </c>
       <c r="B37" s="96" t="n">
-        <v>6.81</v>
+        <v>0</v>
       </c>
       <c r="C37" s="96" t="n">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="D37" s="96" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="96" t="n">
-        <v>7.64</v>
+        <v>0</v>
       </c>
       <c r="F37" s="96" t="n">
-        <v>4.02</v>
+        <v>0</v>
       </c>
       <c r="G37" s="96" t="n">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="96" t="n">
-        <v>-3490.94</v>
+        <v>0</v>
       </c>
       <c r="E38" s="96" t="n">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="103" t="n">
-        <v>11170</v>
+        <v>0</v>
       </c>
       <c r="F42" s="103" t="n">
         <v>0</v>
@@ -7538,10 +7538,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="106" t="n">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="F43" s="106" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G43" s="106" t="n">
         <v>0</v>
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="B44" s="106" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="C44" s="106" t="n">
         <v>0</v>
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="B45" s="106" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="C45" s="106" t="n">
         <v>0</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="106" t="n">
-        <v>885</v>
+        <v>0</v>
       </c>
       <c r="F45" s="106" t="n">
         <v>0</v>
@@ -7667,10 +7667,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="106" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F46" s="106" t="n">
-        <v>3450</v>
+        <v>0</v>
       </c>
       <c r="G46" s="106" t="n">
         <v>2300</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B47" s="106" t="n">
-        <v>1931.46</v>
+        <v>0</v>
       </c>
       <c r="C47" s="106" t="n">
-        <v>1777.27</v>
+        <v>0</v>
       </c>
       <c r="D47" s="106" t="n">
-        <v>1869.9</v>
+        <v>0</v>
       </c>
       <c r="E47" s="106" t="n">
-        <v>1821.46</v>
+        <v>0</v>
       </c>
       <c r="F47" s="106" t="n">
-        <v>1918.65</v>
+        <v>0</v>
       </c>
       <c r="G47" s="106" t="n">
         <v>1574.96</v>
@@ -7744,13 +7744,13 @@
         </is>
       </c>
       <c r="B48" s="96" t="n">
-        <v>5034</v>
+        <v>0</v>
       </c>
       <c r="C48" s="96" t="n">
-        <v>7034</v>
+        <v>0</v>
       </c>
       <c r="D48" s="96" t="n">
-        <v>3007.35</v>
+        <v>0</v>
       </c>
       <c r="E48" s="96" t="n">
         <v>0</v>
@@ -7787,13 +7787,13 @@
         </is>
       </c>
       <c r="B49" s="96" t="n">
-        <v>1775.25</v>
+        <v>0</v>
       </c>
       <c r="C49" s="96" t="n">
-        <v>1775.25</v>
+        <v>0</v>
       </c>
       <c r="D49" s="96" t="n">
-        <v>1011.6</v>
+        <v>0</v>
       </c>
       <c r="E49" s="96" t="n">
         <v>0</v>
@@ -7830,19 +7830,19 @@
         </is>
       </c>
       <c r="B50" s="106" t="n">
-        <v>355.4</v>
+        <v>0</v>
       </c>
       <c r="C50" s="106" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="106" t="n">
-        <v>78.25</v>
+        <v>0</v>
       </c>
       <c r="E50" s="106" t="n">
         <v>0</v>
       </c>
       <c r="F50" s="106" t="n">
-        <v>78.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="G50" s="106" t="n">
         <v>0</v>
@@ -7873,19 +7873,19 @@
         </is>
       </c>
       <c r="B51" s="106" t="n">
-        <v>5177</v>
+        <v>0</v>
       </c>
       <c r="C51" s="106" t="n">
-        <v>2532</v>
+        <v>0</v>
       </c>
       <c r="D51" s="106" t="n">
-        <v>3130</v>
+        <v>0</v>
       </c>
       <c r="E51" s="106" t="n">
-        <v>4230</v>
+        <v>0</v>
       </c>
       <c r="F51" s="106" t="n">
-        <v>3130</v>
+        <v>0</v>
       </c>
       <c r="G51" s="106" t="n">
         <v>6080</v>
@@ -7916,19 +7916,19 @@
         </is>
       </c>
       <c r="B52" s="106" t="n">
-        <v>1604.52</v>
+        <v>0</v>
       </c>
       <c r="C52" s="106" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="106" t="n">
-        <v>1999.13</v>
+        <v>0</v>
       </c>
       <c r="E52" s="106" t="n">
         <v>0</v>
       </c>
       <c r="F52" s="106" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="G52" s="106" t="n">
         <v>0</v>
@@ -7959,19 +7959,19 @@
         </is>
       </c>
       <c r="B53" s="96" t="n">
-        <v>144016.7</v>
+        <v>0</v>
       </c>
       <c r="C53" s="96" t="n">
-        <v>110452</v>
+        <v>0</v>
       </c>
       <c r="D53" s="96" t="n">
-        <v>119527</v>
+        <v>0</v>
       </c>
       <c r="E53" s="96" t="n">
-        <v>119527</v>
+        <v>0</v>
       </c>
       <c r="F53" s="96" t="n">
-        <v>119527</v>
+        <v>0</v>
       </c>
       <c r="G53" s="96" t="n">
         <v>125697</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="106" t="n">
-        <v>86.09</v>
+        <v>0</v>
       </c>
       <c r="E54" s="106" t="n">
         <v>0</v>
@@ -8045,19 +8045,19 @@
         </is>
       </c>
       <c r="B55" s="96" t="n">
-        <v>3323.91</v>
+        <v>0</v>
       </c>
       <c r="C55" s="96" t="n">
-        <v>3323.88</v>
+        <v>0</v>
       </c>
       <c r="D55" s="96" t="n">
-        <v>3323.91</v>
+        <v>0</v>
       </c>
       <c r="E55" s="96" t="n">
-        <v>3323.88</v>
+        <v>0</v>
       </c>
       <c r="F55" s="96" t="n">
-        <v>3323.92</v>
+        <v>0</v>
       </c>
       <c r="G55" s="96" t="n">
         <v>3631.27</v>
@@ -8088,19 +8088,19 @@
         </is>
       </c>
       <c r="B56" s="96" t="n">
-        <v>547.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="C56" s="96" t="n">
-        <v>547.67</v>
+        <v>0</v>
       </c>
       <c r="D56" s="96" t="n">
-        <v>547.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="E56" s="96" t="n">
-        <v>547.67</v>
+        <v>0</v>
       </c>
       <c r="F56" s="96" t="n">
-        <v>547.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="G56" s="96" t="n">
         <v>547.6799999999999</v>
@@ -8131,19 +8131,19 @@
         </is>
       </c>
       <c r="B57" s="96" t="n">
-        <v>193.33</v>
+        <v>0</v>
       </c>
       <c r="C57" s="96" t="n">
-        <v>193.34</v>
+        <v>0</v>
       </c>
       <c r="D57" s="96" t="n">
-        <v>1188.7</v>
+        <v>0</v>
       </c>
       <c r="E57" s="96" t="n">
-        <v>1188.69</v>
+        <v>0</v>
       </c>
       <c r="F57" s="96" t="n">
-        <v>1188.71</v>
+        <v>0</v>
       </c>
       <c r="G57" s="96" t="n">
         <v>1188.69</v>
@@ -8174,19 +8174,19 @@
         </is>
       </c>
       <c r="B58" s="96" t="n">
-        <v>7428.07</v>
+        <v>0</v>
       </c>
       <c r="C58" s="96" t="n">
-        <v>6676.08</v>
+        <v>0</v>
       </c>
       <c r="D58" s="96" t="n">
-        <v>5058.34</v>
+        <v>0</v>
       </c>
       <c r="E58" s="96" t="n">
-        <v>6082.97</v>
+        <v>0</v>
       </c>
       <c r="F58" s="96" t="n">
-        <v>7214.2</v>
+        <v>0</v>
       </c>
       <c r="G58" s="96" t="n">
         <v>7040.33</v>
@@ -8217,19 +8217,19 @@
         </is>
       </c>
       <c r="B59" s="106" t="n">
-        <v>1458.74</v>
+        <v>0</v>
       </c>
       <c r="C59" s="106" t="n">
-        <v>4275.67</v>
+        <v>0</v>
       </c>
       <c r="D59" s="106" t="n">
         <v>0</v>
       </c>
       <c r="E59" s="106" t="n">
-        <v>2089.86</v>
+        <v>0</v>
       </c>
       <c r="F59" s="106" t="n">
-        <v>2063.15</v>
+        <v>0</v>
       </c>
       <c r="G59" s="106" t="n">
         <v>4390.6</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="106" t="n">
-        <v>5202.88</v>
+        <v>0</v>
       </c>
       <c r="D60" s="106" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="106" t="n">
-        <v>1069</v>
+        <v>0</v>
       </c>
       <c r="F61" s="106" t="n">
         <v>0</v>
@@ -8346,19 +8346,19 @@
         </is>
       </c>
       <c r="B62" s="106" t="n">
-        <v>5589.51</v>
+        <v>0</v>
       </c>
       <c r="C62" s="106" t="n">
-        <v>7124.28</v>
+        <v>0</v>
       </c>
       <c r="D62" s="106" t="n">
-        <v>4892.22</v>
+        <v>0</v>
       </c>
       <c r="E62" s="106" t="n">
-        <v>3175.51</v>
+        <v>0</v>
       </c>
       <c r="F62" s="106" t="n">
-        <v>4022.51</v>
+        <v>0</v>
       </c>
       <c r="G62" s="106" t="n">
         <v>5244.4</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="106" t="n">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="D63" s="106" t="n">
         <v>0</v>
@@ -8432,19 +8432,19 @@
         </is>
       </c>
       <c r="B64" s="96" t="n">
-        <v>75818.38</v>
+        <v>0</v>
       </c>
       <c r="C64" s="96" t="n">
-        <v>76990.11</v>
+        <v>0</v>
       </c>
       <c r="D64" s="96" t="n">
-        <v>77215.96000000001</v>
+        <v>0</v>
       </c>
       <c r="E64" s="96" t="n">
-        <v>82763.78</v>
+        <v>0</v>
       </c>
       <c r="F64" s="96" t="n">
-        <v>82564.37</v>
+        <v>0</v>
       </c>
       <c r="G64" s="96" t="n">
         <v>81838.63</v>
@@ -8475,19 +8475,19 @@
         </is>
       </c>
       <c r="B65" s="106" t="n">
-        <v>1375.3</v>
+        <v>0</v>
       </c>
       <c r="C65" s="106" t="n">
-        <v>1777.93</v>
+        <v>0</v>
       </c>
       <c r="D65" s="106" t="n">
-        <v>2190.96</v>
+        <v>0</v>
       </c>
       <c r="E65" s="106" t="n">
-        <v>704.96</v>
+        <v>0</v>
       </c>
       <c r="F65" s="106" t="n">
-        <v>1459.35</v>
+        <v>0</v>
       </c>
       <c r="G65" s="106" t="n">
         <v>2745.32</v>
@@ -8518,19 +8518,19 @@
         </is>
       </c>
       <c r="B66" s="106" t="n">
-        <v>2299.13</v>
+        <v>0</v>
       </c>
       <c r="C66" s="106" t="n">
-        <v>1173.91</v>
+        <v>0</v>
       </c>
       <c r="D66" s="106" t="n">
-        <v>2190.86</v>
+        <v>0</v>
       </c>
       <c r="E66" s="106" t="n">
-        <v>4327.12</v>
+        <v>0</v>
       </c>
       <c r="F66" s="106" t="n">
-        <v>5699.68</v>
+        <v>0</v>
       </c>
       <c r="G66" s="106" t="n">
         <v>7557.38</v>
@@ -8561,19 +8561,19 @@
         </is>
       </c>
       <c r="B67" s="96" t="n">
-        <v>843.6</v>
+        <v>0</v>
       </c>
       <c r="C67" s="96" t="n">
-        <v>843.6</v>
+        <v>0</v>
       </c>
       <c r="D67" s="96" t="n">
-        <v>843.6</v>
+        <v>0</v>
       </c>
       <c r="E67" s="96" t="n">
-        <v>843.6</v>
+        <v>0</v>
       </c>
       <c r="F67" s="96" t="n">
-        <v>843.6</v>
+        <v>0</v>
       </c>
       <c r="G67" s="96" t="n">
         <v>989.75</v>
@@ -8604,19 +8604,19 @@
         </is>
       </c>
       <c r="B68" s="96" t="n">
-        <v>29600</v>
+        <v>0</v>
       </c>
       <c r="C68" s="96" t="n">
-        <v>29600</v>
+        <v>0</v>
       </c>
       <c r="D68" s="96" t="n">
-        <v>29600</v>
+        <v>0</v>
       </c>
       <c r="E68" s="96" t="n">
-        <v>29600</v>
+        <v>0</v>
       </c>
       <c r="F68" s="96" t="n">
-        <v>29600</v>
+        <v>0</v>
       </c>
       <c r="G68" s="96" t="n">
         <v>29600</v>
@@ -8647,19 +8647,19 @@
         </is>
       </c>
       <c r="B69" s="106" t="n">
-        <v>6352.8</v>
+        <v>0</v>
       </c>
       <c r="C69" s="106" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="D69" s="106" t="n">
-        <v>2121.6</v>
+        <v>0</v>
       </c>
       <c r="E69" s="106" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F69" s="106" t="n">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="G69" s="106" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="96" t="n">
-        <v>5192.13</v>
+        <v>0</v>
       </c>
       <c r="E70" s="96" t="n">
         <v>0</v>
@@ -8733,19 +8733,19 @@
         </is>
       </c>
       <c r="B71" s="96" t="n">
-        <v>311179.66</v>
+        <v>0</v>
       </c>
       <c r="C71" s="96" t="n">
-        <v>327361.08</v>
+        <v>0</v>
       </c>
       <c r="D71" s="96" t="n">
-        <v>333418.54</v>
+        <v>0</v>
       </c>
       <c r="E71" s="96" t="n">
-        <v>373109.3</v>
+        <v>0</v>
       </c>
       <c r="F71" s="96" t="n">
-        <v>377867.45</v>
+        <v>0</v>
       </c>
       <c r="G71" s="96" t="n">
         <v>367762.35</v>
@@ -8776,19 +8776,19 @@
         </is>
       </c>
       <c r="B72" s="96" t="n">
-        <v>3744.13</v>
+        <v>0</v>
       </c>
       <c r="C72" s="96" t="n">
-        <v>3918.5</v>
+        <v>0</v>
       </c>
       <c r="D72" s="96" t="n">
-        <v>3980.49</v>
+        <v>0</v>
       </c>
       <c r="E72" s="96" t="n">
-        <v>4434.64</v>
+        <v>0</v>
       </c>
       <c r="F72" s="96" t="n">
-        <v>4480.77</v>
+        <v>0</v>
       </c>
       <c r="G72" s="96" t="n">
         <v>4371.35</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="106" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G73" s="106" t="n">
         <v>0</v>
@@ -8862,19 +8862,19 @@
         </is>
       </c>
       <c r="B74" s="106" t="n">
-        <v>177.33</v>
+        <v>0</v>
       </c>
       <c r="C74" s="106" t="n">
-        <v>177.33</v>
+        <v>0</v>
       </c>
       <c r="D74" s="106" t="n">
-        <v>177.33</v>
+        <v>0</v>
       </c>
       <c r="E74" s="106" t="n">
-        <v>177.33</v>
+        <v>0</v>
       </c>
       <c r="F74" s="106" t="n">
-        <v>177.33</v>
+        <v>0</v>
       </c>
       <c r="G74" s="106" t="n">
         <v>177.33</v>
@@ -8905,19 +8905,19 @@
         </is>
       </c>
       <c r="B75" s="106" t="n">
-        <v>833.91</v>
+        <v>0</v>
       </c>
       <c r="C75" s="106" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="D75" s="106" t="n">
-        <v>607.83</v>
+        <v>0</v>
       </c>
       <c r="E75" s="106" t="n">
-        <v>4172.17</v>
+        <v>0</v>
       </c>
       <c r="F75" s="106" t="n">
-        <v>2165.59</v>
+        <v>0</v>
       </c>
       <c r="G75" s="106" t="n">
         <v>3800</v>
@@ -8951,16 +8951,16 @@
         <v>0</v>
       </c>
       <c r="C76" s="106" t="n">
-        <v>244.98</v>
+        <v>0</v>
       </c>
       <c r="D76" s="106" t="n">
-        <v>2227.4</v>
+        <v>0</v>
       </c>
       <c r="E76" s="106" t="n">
-        <v>2814.73</v>
+        <v>0</v>
       </c>
       <c r="F76" s="106" t="n">
-        <v>4892.56</v>
+        <v>0</v>
       </c>
       <c r="G76" s="106" t="n">
         <v>3395.64</v>
@@ -8991,19 +8991,19 @@
         </is>
       </c>
       <c r="B77" s="106" t="n">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="C77" s="106" t="n">
-        <v>803.5</v>
+        <v>0</v>
       </c>
       <c r="D77" s="106" t="n">
-        <v>937.23</v>
+        <v>0</v>
       </c>
       <c r="E77" s="106" t="n">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="F77" s="106" t="n">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="G77" s="106" t="n">
         <v>846.99</v>
@@ -9034,7 +9034,7 @@
         </is>
       </c>
       <c r="B78" s="106" t="n">
-        <v>10825.49</v>
+        <v>0</v>
       </c>
       <c r="C78" s="106" t="n">
         <v>0</v>
@@ -9077,19 +9077,19 @@
         </is>
       </c>
       <c r="B79" s="106" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="C79" s="106" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="D79" s="106" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="E79" s="106" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="F79" s="106" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="G79" s="106" t="n">
         <v>747</v>
@@ -9120,19 +9120,19 @@
         </is>
       </c>
       <c r="B80" s="106" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C80" s="106" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D80" s="106" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E80" s="106" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F80" s="106" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G80" s="106" t="n">
         <v>600</v>
@@ -9172,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="E81" s="106" t="n">
-        <v>8349.65</v>
+        <v>0</v>
       </c>
       <c r="F81" s="106" t="n">
-        <v>2162.32</v>
+        <v>0</v>
       </c>
       <c r="G81" s="106" t="n">
         <v>0</v>
@@ -9206,19 +9206,19 @@
         </is>
       </c>
       <c r="B82" s="96" t="n">
-        <v>1920.62</v>
+        <v>0</v>
       </c>
       <c r="C82" s="96" t="n">
-        <v>2003.44</v>
+        <v>0</v>
       </c>
       <c r="D82" s="96" t="n">
-        <v>2059.18</v>
+        <v>0</v>
       </c>
       <c r="E82" s="96" t="n">
-        <v>2442.38</v>
+        <v>0</v>
       </c>
       <c r="F82" s="96" t="n">
-        <v>2495.21</v>
+        <v>0</v>
       </c>
       <c r="G82" s="96" t="n">
         <v>2385.07</v>
@@ -9249,19 +9249,19 @@
         </is>
       </c>
       <c r="B83" s="96" t="n">
-        <v>1920.62</v>
+        <v>0</v>
       </c>
       <c r="C83" s="96" t="n">
-        <v>2003.44</v>
+        <v>0</v>
       </c>
       <c r="D83" s="96" t="n">
-        <v>2059.18</v>
+        <v>0</v>
       </c>
       <c r="E83" s="96" t="n">
-        <v>2442.38</v>
+        <v>0</v>
       </c>
       <c r="F83" s="96" t="n">
-        <v>2495.21</v>
+        <v>0</v>
       </c>
       <c r="G83" s="96" t="n">
         <v>2385.07</v>
@@ -13502,19 +13502,19 @@
         <v/>
       </c>
       <c r="D8" s="26" t="n">
-        <v>0</v>
+        <v>23450000</v>
       </c>
       <c r="E8" s="26" t="n">
-        <v>0</v>
+        <v>13594260.87</v>
       </c>
       <c r="F8" s="26" t="n">
-        <v>0</v>
+        <v>4550000</v>
       </c>
       <c r="G8" s="26" t="n">
-        <v>0</v>
+        <v>12650000</v>
       </c>
       <c r="H8" s="26" t="n">
-        <v>0</v>
+        <v>12650000</v>
       </c>
       <c r="I8" s="26" t="n">
         <v>13012260.88</v>
@@ -13792,19 +13792,19 @@
         <v/>
       </c>
       <c r="D15" s="26" t="n">
-        <v>0</v>
+        <v>1281743.85</v>
       </c>
       <c r="E15" s="26" t="n">
-        <v>0</v>
+        <v>741743.85</v>
       </c>
       <c r="F15" s="26" t="n">
-        <v>0</v>
+        <v>441743.85</v>
       </c>
       <c r="G15" s="26" t="n">
-        <v>0</v>
+        <v>801743.85</v>
       </c>
       <c r="H15" s="26" t="n">
-        <v>0</v>
+        <v>801743.85</v>
       </c>
       <c r="I15" s="26" t="n">
         <v>650395.63</v>
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="26" t="n">
-        <v>44968.24</v>
+        <v>0</v>
       </c>
       <c r="I18" s="26" t="n">
         <v>0</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="26" t="n">
-        <v>14689.94</v>
+        <v>0</v>
       </c>
       <c r="H20" s="26" t="n">
         <v>0</v>
@@ -14140,7 +14140,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="26" t="n">
-        <v>6212.85</v>
+        <v>0</v>
       </c>
       <c r="I22" s="26" t="n">
         <v>0</v>
@@ -14176,19 +14176,19 @@
         <v/>
       </c>
       <c r="D23" s="26" t="n">
-        <v>0</v>
+        <v>631504.98</v>
       </c>
       <c r="E23" s="26" t="n">
-        <v>0</v>
+        <v>361504.98</v>
       </c>
       <c r="F23" s="26" t="n">
-        <v>0</v>
+        <v>211504.98</v>
       </c>
       <c r="G23" s="26" t="n">
-        <v>0</v>
+        <v>391504.98</v>
       </c>
       <c r="H23" s="26" t="n">
-        <v>0</v>
+        <v>391504.98</v>
       </c>
       <c r="I23" s="26" t="n">
         <v>316982.97</v>
@@ -14609,19 +14609,19 @@
         <v/>
       </c>
       <c r="D35" s="26" t="n">
-        <v>24975</v>
+        <v>0</v>
       </c>
       <c r="E35" s="26" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="26" t="n">
-        <v>5637.5</v>
+        <v>0</v>
       </c>
       <c r="G35" s="26" t="n">
-        <v>1293.75</v>
+        <v>0</v>
       </c>
       <c r="H35" s="26" t="n">
-        <v>7705</v>
+        <v>0</v>
       </c>
       <c r="I35" s="26" t="n">
         <v>9750</v>
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="26" t="n">
-        <v>4602</v>
+        <v>0</v>
       </c>
       <c r="I37" s="26" t="n">
         <v>9967.1</v>
@@ -14945,13 +14945,13 @@
         <v/>
       </c>
       <c r="D42" s="26" t="n">
-        <v>0</v>
+        <v>7250</v>
       </c>
       <c r="E42" s="26" t="n">
-        <v>0</v>
+        <v>7250</v>
       </c>
       <c r="F42" s="26" t="n">
-        <v>0</v>
+        <v>7250</v>
       </c>
       <c r="G42" s="26" t="n">
         <v>7250</v>
@@ -15137,19 +15137,19 @@
         <v/>
       </c>
       <c r="D46" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E46" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F46" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G46" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H46" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I46" s="26" t="n">
         <v>4367.12</v>
@@ -15185,19 +15185,19 @@
         <v/>
       </c>
       <c r="D47" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E47" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F47" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G47" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H47" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I47" s="26" t="n">
         <v>17723.42</v>
@@ -15233,19 +15233,19 @@
         <v/>
       </c>
       <c r="D48" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E48" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F48" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G48" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H48" s="129" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I48" s="26" t="n">
         <v>9131.51</v>
@@ -15281,19 +15281,19 @@
         <v/>
       </c>
       <c r="D49" s="108" t="n">
-        <v>0</v>
+        <v>2874952.38</v>
       </c>
       <c r="E49" s="108" t="n">
-        <v>0</v>
+        <v>2874952.38</v>
       </c>
       <c r="F49" s="108" t="n">
-        <v>0</v>
+        <v>624952.38</v>
       </c>
       <c r="G49" s="108" t="n">
-        <v>0</v>
+        <v>624952.38</v>
       </c>
       <c r="H49" s="108" t="n">
-        <v>0</v>
+        <v>624952.38</v>
       </c>
       <c r="I49" s="108" t="n">
         <v>274749.93</v>
@@ -15329,19 +15329,19 @@
         <v/>
       </c>
       <c r="D50" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E50" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F50" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G50" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H50" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I50" s="108" t="n">
         <v>0</v>
@@ -15377,19 +15377,19 @@
         <v/>
       </c>
       <c r="D51" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E51" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F51" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G51" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H51" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I51" s="108" t="n">
         <v>91616.44</v>
@@ -15425,19 +15425,19 @@
         <v/>
       </c>
       <c r="D52" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E52" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F52" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G52" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H52" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I52" s="108" t="n">
         <v>1025053.74</v>
@@ -15473,19 +15473,19 @@
         <v/>
       </c>
       <c r="D53" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E53" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F53" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G53" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H53" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I53" s="127" t="n">
         <v>0</v>
@@ -15521,19 +15521,19 @@
         <v/>
       </c>
       <c r="D54" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E54" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F54" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G54" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H54" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I54" s="127" t="n">
         <v>0</v>
@@ -15569,19 +15569,19 @@
         <v/>
       </c>
       <c r="D55" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E55" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F55" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G55" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H55" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I55" s="127" t="n">
         <v>0</v>
@@ -15617,19 +15617,19 @@
         <v/>
       </c>
       <c r="D56" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E56" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F56" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G56" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H56" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I56" s="108" t="n">
         <v>932.4</v>
@@ -15665,19 +15665,19 @@
         <v/>
       </c>
       <c r="D57" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E57" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F57" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G57" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H57" s="108" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I57" s="108" t="n">
         <v>82.19</v>
@@ -15713,19 +15713,19 @@
         <v/>
       </c>
       <c r="D58" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E58" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F58" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G58" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H58" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I58" s="108" t="n">
         <v>26106.19</v>
@@ -15761,19 +15761,19 @@
         <v/>
       </c>
       <c r="D59" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E59" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F59" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G59" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H59" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I59" s="108" t="n">
         <v>34057.67</v>
@@ -15809,19 +15809,19 @@
         <v/>
       </c>
       <c r="D60" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E60" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F60" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G60" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H60" s="130" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I60" s="108" t="n">
         <v>2537.9</v>
@@ -15914,7 +15914,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="26" t="n">
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="H62" s="26" t="n">
         <v>0</v>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="152" t="n">
-        <v>12287646.5</v>
+        <v>12836646.5</v>
       </c>
       <c r="E41" s="152" t="n">
         <v>0</v>
@@ -19782,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="152" t="n">
-        <v>36373136.36</v>
+        <v>37004486.36</v>
       </c>
     </row>
     <row r="67">
@@ -19798,7 +19798,7 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="152" t="n">
-        <v>3433928.18</v>
+        <v>3516278.18</v>
       </c>
       <c r="E67" s="152" t="n">
         <v>0</v>
